--- a/SceneServer/tools/Xlsx/kx_scene.xlsx
+++ b/SceneServer/tools/Xlsx/kx_scene.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23310" windowHeight="15765"/>
+    <workbookView windowWidth="31860" windowHeight="13860"/>
   </bookViews>
   <sheets>
     <sheet name="kx_quyudingyi" sheetId="2" r:id="rId1"/>
@@ -17,8 +17,30 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>场景名字必须唯一</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>idx</t>
   </si>
@@ -69,6 +91,9 @@
   </si>
   <si>
     <t>Copy_Map4</t>
+  </si>
+  <si>
+    <t>Copy_Map5</t>
   </si>
 </sst>
 </file>
@@ -81,7 +106,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +257,11 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1010,15 +1040,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="5.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.375" style="1" customWidth="1"/>
@@ -1027,7 +1057,7 @@
     <col min="5" max="5" width="8.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.375" style="1" customWidth="1"/>
     <col min="11" max="11" width="11.125" style="1" customWidth="1"/>
@@ -1150,10 +1180,34 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" customHeight="1" spans="1:7">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1">
+        <v>25388</v>
+      </c>
+      <c r="D7" s="1">
+        <v>24778</v>
+      </c>
+      <c r="E7" s="1">
+        <v>28546</v>
+      </c>
+      <c r="F7" s="1">
+        <v>27000</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
